--- a/Bitrix24 - 2/Data Export and Import.xlsx
+++ b/Bitrix24 - 2/Data Export and Import.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>Service name</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>PieSync</t>
-  </si>
-  <si>
-    <t>Lpgenerator</t>
   </si>
   <si>
     <t>Neoneuro LLC</t>
@@ -142,9 +139,6 @@
   </si>
   <si>
     <t>no information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email, username, password, </t>
   </si>
   <si>
     <t>https://mailchimp.com/legal/privacy/?_ga=2.30106623.1787293182.1558609366-1128783440.1558609366</t>
@@ -179,6 +173,78 @@
   </si>
   <si>
     <t>https://www.bitrix24.com/apps/?app=sendpulse.emailservice#install</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRM
+</t>
+  </si>
+  <si>
+    <t>LPgenerator LLC</t>
+  </si>
+  <si>
+    <t>https://lpgenerator.ru/privacy/</t>
+  </si>
+  <si>
+    <t>https://lpgenerator.ru/blog/2014/03/11/integraciya-lpgenerator-c-bitrix24/</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Data transmission</t>
+  </si>
+  <si>
+    <t>https://www.unisender.com/en/privacy-notice/?_ga=2.76006869.1364152671.1558630913-1315943005.1558630913</t>
+  </si>
+  <si>
+    <t>https://www.bitrix24.com/apps/?app=artdepo.unisenderb24#install</t>
+  </si>
+  <si>
+    <t>Organization of the working process</t>
+  </si>
+  <si>
+    <t>Ecomz Holding Limited</t>
+  </si>
+  <si>
+    <t>Republic of Cyprus</t>
+  </si>
+  <si>
+    <t>CRM
+Tasks
+Calendar
+Employees
+Workgroups
+Lists
+Company structure
+Telephony
+Data storage</t>
+  </si>
+  <si>
+    <t>https://neoneuro.com/help/pivot-table/setting_up_work_with_the_crm_bitrix24_system.htm</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>CRM
+Employees
+Creating and managing Chat bots
+Open lines</t>
+  </si>
+  <si>
+    <t>CRM
+Tasks
+Tasks (extended rights)
+Employees</t>
+  </si>
+  <si>
+    <t>https://www.bitrix24.com/apps/?app=nicgrade.ma#install</t>
+  </si>
+  <si>
+    <t>https://nicgrade.com/en/legal/privacy-policy</t>
+  </si>
+  <si>
+    <t>Nicgrade ltd</t>
   </si>
 </sst>
 </file>
@@ -635,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +712,7 @@
     <col min="6" max="6" width="47.3984375" style="5" customWidth="1"/>
     <col min="7" max="7" width="18.296875" style="5" customWidth="1"/>
     <col min="8" max="8" width="22.796875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.8984375" style="5" customWidth="1"/>
     <col min="10" max="10" width="28.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.59765625" style="5" customWidth="1"/>
     <col min="12" max="16384" width="10.69921875" style="5"/>
@@ -686,123 +752,161 @@
     </row>
     <row r="3" spans="2:11" ht="156.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="5" spans="2:11" ht="187.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="124.8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+    </row>
+    <row r="7" spans="2:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="2"/>
@@ -810,23 +914,35 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
@@ -834,7 +950,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="2"/>
@@ -866,7 +982,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="2"/>
@@ -882,7 +998,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="2"/>
@@ -981,8 +1097,15 @@
     <hyperlink ref="I3" r:id="rId2"/>
     <hyperlink ref="I4" r:id="rId3"/>
     <hyperlink ref="H4" r:id="rId4" location="install"/>
+    <hyperlink ref="I5" r:id="rId5"/>
+    <hyperlink ref="H5" r:id="rId6"/>
+    <hyperlink ref="I6" r:id="rId7"/>
+    <hyperlink ref="H6" r:id="rId8" location="install"/>
+    <hyperlink ref="H7" r:id="rId9"/>
+    <hyperlink ref="H9" r:id="rId10" location="install"/>
+    <hyperlink ref="I9" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Bitrix24 - 2/Data Export and Import.xlsx
+++ b/Bitrix24 - 2/Data Export and Import.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
   <si>
     <t>Service name</t>
   </si>
@@ -100,15 +100,9 @@
     <t>MailChimp mailer - integration with Bitrix24</t>
   </si>
   <si>
-    <t>avivi</t>
-  </si>
-  <si>
     <t>Macte</t>
   </si>
   <si>
-    <t>PieSync</t>
-  </si>
-  <si>
     <t>Neoneuro LLC</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
   </si>
   <si>
     <t>Nicgrade Marketing Automation</t>
-  </si>
-  <si>
-    <t>Elephant</t>
   </si>
   <si>
     <t>WebBee Ltd</t>
@@ -245,6 +236,134 @@
   </si>
   <si>
     <t>Nicgrade ltd</t>
+  </si>
+  <si>
+    <t>https://masterplat.net/privacy.php</t>
+  </si>
+  <si>
+    <t>https://www.bitrix24.com/apps/?app=masterplat.card2crm#install</t>
+  </si>
+  <si>
+    <t>No English on the site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data synchronization </t>
+  </si>
+  <si>
+    <t>Elephant-group</t>
+  </si>
+  <si>
+    <t>CRM
+Employees</t>
+  </si>
+  <si>
+    <t>https://www.bitrix24.com/apps/?app=elephant.productupdatefree#install</t>
+  </si>
+  <si>
+    <t>CRM
+Employees
+Data storage</t>
+  </si>
+  <si>
+    <t>APIHub, Inc.</t>
+  </si>
+  <si>
+    <t>https://dashboard.clearbit.com/privacy</t>
+  </si>
+  <si>
+    <t>https://www.bitrix24.com/apps/?app=avivi.clearbit#install</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>http://webbee.co.nz/company/privacy-statement.php</t>
+  </si>
+  <si>
+    <t>CRM
+Application embedding
+Employees
+Data storage</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DyG75Aeh-D3uhjacUIBkmHzfbebb_SyX/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://www.piesync.com/legal/privacy-policy/</t>
+  </si>
+  <si>
+    <t>https://www.piesync.com/legal/data-processing-agreement/</t>
+  </si>
+  <si>
+    <t>PieSync nv</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>https://www.bitrix24.com/apps/?app=piesync.prod#install</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>https://www.bitrix24.com/apps/?app=make.taskimporter#install</t>
+  </si>
+  <si>
+    <t>CRM
+Application embedding
+Employees
+Data storage
+Chat and notifications</t>
+  </si>
+  <si>
+    <t>https://b242ga.com/quick_start</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SUJKp34Sziy97cqQGS4P-GrzW-Q1dYvA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Message from service doesn`t came</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full name, physical address, billing address, name of the business and website, plan and payment information, email, payment method, date of birth, occupation, location, phone number, device information, IP address, product usage data </t>
+  </si>
+  <si>
+    <t>Full name, email, mobile phone, language, currency, timezone, physical address, gender, industry, website, company information (such Tax ID, RRC etc), banking details, contact person, payment method</t>
+  </si>
+  <si>
+    <t>Full name, phone number, payment method, timezone, email, industry, IP address, operation system version, type of browser, location</t>
+  </si>
+  <si>
+    <t>Full name, email, phone number, company name, location, timezone, notification language,  information for messages, bank details (such ITN, bank etc), API key, PIN code for creating the messages, information on connected and used tariffs, payment transaction IDs, payment methods and time, using Used dedicated IP for sending mailings, identifiers for Google+ and Facebook services, information about the Tools used</t>
+  </si>
+  <si>
+    <t>Full name, phone number, email, message from order</t>
+  </si>
+  <si>
+    <t>Data from file for import, file format, configuration for field mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full name, email, title, company name, company size, phone number, API key, preferences (users, departments, social network groups and other information), personal data (name, location, role and seniority etc) and company data (legal name, employee count etc) </t>
+  </si>
+  <si>
+    <t>Full name, company name, phone number, email, MailChimp key, gender, mailing address, professional title, industry, browser type, operating system, IP address, domain name, unique system/hardware identifier, a date/time stamp</t>
+  </si>
+  <si>
+    <t>Full name, email, subject and message from order, payment method</t>
+  </si>
+  <si>
+    <t>Full name, physical address, billing information, email, payment method, phone number, location, personal data about clients, browser type, operating system, IP address, domain name, number of times client visited the Website and dates</t>
+  </si>
+  <si>
+    <t>Full name, date and place of birth, home address, marital status, social security
+data, data on financial position, education, profession, income, as well as
+other information, IP addresses, browser type and
+version, viewed webpages of the Carrot Quest Products, time of day when
+webpages are visited and other stats</t>
   </si>
 </sst>
 </file>
@@ -298,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,7 +426,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -368,9 +499,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -380,8 +508,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -699,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K32"/>
+  <dimension ref="A2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +857,7 @@
     <col min="12" max="16384" width="10.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -750,297 +889,426 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="156.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="156.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="K4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="187.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="187.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="I6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>58</v>
+        <v>32</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>28</v>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>63</v>
+        <v>32</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="6" t="s">
+      <c r="D10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="131.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
@@ -1104,8 +1372,21 @@
     <hyperlink ref="H7" r:id="rId9"/>
     <hyperlink ref="H9" r:id="rId10" location="install"/>
     <hyperlink ref="I9" r:id="rId11"/>
+    <hyperlink ref="I8" r:id="rId12"/>
+    <hyperlink ref="H8" r:id="rId13" location="install"/>
+    <hyperlink ref="H10" r:id="rId14" location="install"/>
+    <hyperlink ref="I11" r:id="rId15"/>
+    <hyperlink ref="H11" r:id="rId16" location="install"/>
+    <hyperlink ref="I12" r:id="rId17"/>
+    <hyperlink ref="H12" r:id="rId18"/>
+    <hyperlink ref="I14" r:id="rId19"/>
+    <hyperlink ref="G14" r:id="rId20"/>
+    <hyperlink ref="H14" r:id="rId21" location="install"/>
+    <hyperlink ref="H13" r:id="rId22" location="install"/>
+    <hyperlink ref="H15" r:id="rId23"/>
+    <hyperlink ref="J15" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>